--- a/public/csv_demo/category_item_demo.xlsx
+++ b/public/csv_demo/category_item_demo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="597" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" tabRatio="597" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="PRIME CATALOGUE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="165">
   <si>
     <t>en</t>
   </si>
@@ -155,75 +155,6 @@
     <t>Monchow Soup</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"product_category"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is_parent_category</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>="0"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>link_url</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=""</t>
-    </r>
-  </si>
-  <si>
     <t>Manchow soup</t>
   </si>
   <si>
@@ -560,336 +491,53 @@
     <t>Afficher le PDF</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"parent_category"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is_parent_category=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"1"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parent_cat_name=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>""</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>link_url=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>""</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parent_cat_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>="Prime Catalogue"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>parent_cat_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=""</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"page"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is_parent_category=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"0"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"link"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>link_url=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"https://www.instagram.com/"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>link_url=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"https://www.facebook.com/"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"image_gallary"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"check_in_page"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>category_type=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"pdf_category"</t>
-    </r>
-  </si>
-  <si>
     <t>τσάι, αναψυκτικά</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>parent_category</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Parent Name</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>product_category</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/</t>
+  </si>
+  <si>
+    <t>image_gallary</t>
+  </si>
+  <si>
+    <t>check_in_page</t>
+  </si>
+  <si>
+    <t>pdf_category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +560,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -930,15 +586,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1217,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,127 +911,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+        <v>153</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1384,9 +1051,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1397,142 +1066,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+      <c r="D2" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,140 +1226,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1687,127 +1381,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>148</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1819,9 +1521,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1832,127 +1536,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1963,10 +1675,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC10"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,284 +1714,295 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5">
-        <v>35</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6">
+        <v>35</v>
       </c>
       <c r="Z6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="s">
         <v>44</v>
-      </c>
-      <c r="H7">
-        <v>35</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
       </c>
       <c r="Z8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>34</v>
       </c>
       <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <v>35</v>
+      </c>
+      <c r="Z10" t="s">
         <v>51</v>
       </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10">
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
         <v>10</v>
       </c>
-      <c r="Z10" t="s">
-        <v>55</v>
+      <c r="Z11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2290,10 +2013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC7"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,157 +2044,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
@@ -2479,28 +2184,28 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>30</v>
       </c>
       <c r="Z6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -2508,28 +2213,57 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
       <c r="Z7" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2540,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,343 +2303,354 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5">
-        <v>12</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
       <c r="Z6" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
       <c r="Z9" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11">
-        <v>12</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
+      <c r="G12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
       <c r="Z12" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
         <v>88</v>
       </c>
-      <c r="D13" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13">
+      <c r="F14">
         <v>5</v>
       </c>
     </row>
@@ -2917,10 +2662,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,380 +2683,388 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="H12">
-        <v>5</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="Z13" t="s">
         <v>103</v>
       </c>
-      <c r="F13">
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="G13" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13">
+      <c r="G14" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14">
         <v>3</v>
       </c>
-      <c r="Z13" t="s">
-        <v>106</v>
+      <c r="Z14" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3322,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC13"/>
+  <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3342,209 +3095,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" t="s">
-        <v>41</v>
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>123</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
+      <c r="C6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H6">
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" t="s">
         <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" t="s">
-        <v>122</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H7">
         <v>20</v>
@@ -3555,83 +3287,83 @@
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>125</v>
-      </c>
-      <c r="H8">
-        <v>40</v>
-      </c>
       <c r="Z8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F9">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H9">
         <v>40</v>
       </c>
       <c r="Z9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F10">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H10">
         <v>40</v>
@@ -3642,89 +3374,118 @@
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F11">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H11">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="Z11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F12">
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H12">
         <v>60</v>
       </c>
       <c r="Z12" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F13">
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H13">
         <v>60</v>
       </c>
       <c r="Z13" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H14">
+        <v>60</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3735,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,127 +3511,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3882,10 +3651,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,127 +3666,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4029,9 +3806,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4042,131 +3821,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
+      <c r="D2" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>143</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>